--- a/MavenProject1/data/TC001.xlsx
+++ b/MavenProject1/data/TC001.xlsx
@@ -56,18 +56,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,19 +82,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,10 +449,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="F3" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MavenProject1/data/TC001.xlsx
+++ b/MavenProject1/data/TC001.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -25,21 +25,12 @@
     <t>eagle1</t>
   </si>
   <si>
-    <t>Attrib And Risk Report,AL HY Fixed Income Attribution</t>
-  </si>
-  <si>
     <t>ExpectedStrs</t>
   </si>
   <si>
     <t>Timeouts</t>
   </si>
   <si>
-    <t>COMMENTARY,FIXED INCOME</t>
-  </si>
-  <si>
-    <t>3000,10000</t>
-  </si>
-  <si>
     <t>Url</t>
   </si>
   <si>
@@ -49,20 +40,74 @@
     <t>mgoodey</t>
   </si>
   <si>
-    <t>http://10.130.35.25:100/modules/olap/#/login</t>
+    <t>M2_PrototypeWithChart</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>http://10.130.35.25:100/modules/olapv3/#/login</t>
+  </si>
+  <si>
+    <t>Performance Summary</t>
+  </si>
+  <si>
+    <t>ReportsTabReport</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>4 Level Model1</t>
+  </si>
+  <si>
+    <t>testsasiURL</t>
+  </si>
+  <si>
+    <t>testkey</t>
+  </si>
+  <si>
+    <t>fileWithPath</t>
+  </si>
+  <si>
+    <t>C:\Users\sselvarasux\Desktop\screenshot\Chart.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4E4949"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,14 +127,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,9 +462,9 @@
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -420,37 +473,64 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/MavenProject1/data/TC001.xlsx
+++ b/MavenProject1/data/TC001.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
